--- a/biology/Médecine/Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers/Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers.xlsx
+++ b/biology/Médecine/Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers/Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fondation_Lalla_Salma_-_Pr%C3%A9vention_et_traitement_des_cancers</t>
+          <t>Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fondation — dite aussi Association — Lalla Salma de lutte contre le cancer, couramment nommée Fondation Lalla Salma, est une association marocaine créée le 6 septembre 2005 par la princesse Lalla Salma  et reconnue d'utilité publique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fondation — dite aussi Association — Lalla Salma de lutte contre le cancer, couramment nommée Fondation Lalla Salma, est une association marocaine créée le 6 septembre 2005 par la princesse Lalla Salma  et reconnue d'utilité publique.
 Organisation non gouvernementale, l'ALSC a pour missions la prévention et la promotion des dépistages des cancers, l'accompagnement des personnes malades et de leurs proches et le soutien au corps médical et la recherche clinique et opérationnelle, et l'aide et l'assistance à la création de centres d'oncologie et à leur équipement.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fondation_Lalla_Salma_-_Pr%C3%A9vention_et_traitement_des_cancers</t>
+          <t>Fondation_Lalla_Salma_-_Prévention_et_traitement_des_cancers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Programmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prévention et sensibilisation : Informer le grand public constitue un des axes stratégiques prioritaires de la Fondation Lalla Salma
 La lutte contre le tabac et le programme Collèges et Lycées sans tabac : Ce programme vise à :
